--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Sfrp2</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sfrp2</t>
-  </si>
-  <si>
-    <t>Fzd5</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.901917666666667</v>
+        <v>8.119172000000001</v>
       </c>
       <c r="H2">
-        <v>5.705753</v>
+        <v>24.357516</v>
       </c>
       <c r="I2">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="J2">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N2">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q2">
-        <v>4.456892364728778</v>
+        <v>22.86147195449867</v>
       </c>
       <c r="R2">
-        <v>40.11203128255899</v>
+        <v>205.753247590488</v>
       </c>
       <c r="S2">
-        <v>0.0003171046531877904</v>
+        <v>0.001445906868095314</v>
       </c>
       <c r="T2">
-        <v>0.0003171046531877904</v>
+        <v>0.001445906868095314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.901917666666667</v>
+        <v>8.119172000000001</v>
       </c>
       <c r="H3">
-        <v>5.705753</v>
+        <v>24.357516</v>
       </c>
       <c r="I3">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="J3">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q3">
-        <v>9.210215715066555</v>
+        <v>39.31785631855867</v>
       </c>
       <c r="R3">
-        <v>82.89194143559899</v>
+        <v>353.860706867028</v>
       </c>
       <c r="S3">
-        <v>0.0006553001556026245</v>
+        <v>0.00248671470511337</v>
       </c>
       <c r="T3">
-        <v>0.0006553001556026245</v>
+        <v>0.00248671470511337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.901917666666667</v>
+        <v>8.119172000000001</v>
       </c>
       <c r="H4">
-        <v>5.705753</v>
+        <v>24.357516</v>
       </c>
       <c r="I4">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="J4">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N4">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q4">
-        <v>7.982277442073778</v>
+        <v>44.962277629052</v>
       </c>
       <c r="R4">
-        <v>71.84049697866399</v>
+        <v>404.660498661468</v>
       </c>
       <c r="S4">
-        <v>0.0005679332397500168</v>
+        <v>0.002843704296838232</v>
       </c>
       <c r="T4">
-        <v>0.0005679332397500168</v>
+        <v>0.002843704296838232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.901917666666667</v>
+        <v>8.119172000000001</v>
       </c>
       <c r="H5">
-        <v>5.705753</v>
+        <v>24.357516</v>
       </c>
       <c r="I5">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="J5">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N5">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q5">
-        <v>3.476727049733555</v>
+        <v>9.650412656121336</v>
       </c>
       <c r="R5">
-        <v>31.29054344760199</v>
+        <v>86.85371390509201</v>
       </c>
       <c r="S5">
-        <v>0.000247366603254611</v>
+        <v>0.0006103543099592064</v>
       </c>
       <c r="T5">
-        <v>0.000247366603254611</v>
+        <v>0.0006103543099592064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.901917666666667</v>
+        <v>8.119172000000001</v>
       </c>
       <c r="H6">
-        <v>5.705753</v>
+        <v>24.357516</v>
       </c>
       <c r="I6">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="J6">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N6">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q6">
-        <v>28.55091029533811</v>
+        <v>153.0553205828093</v>
       </c>
       <c r="R6">
-        <v>256.958192658043</v>
+        <v>1377.497885245284</v>
       </c>
       <c r="S6">
-        <v>0.002031376521238888</v>
+        <v>0.009680205179687311</v>
       </c>
       <c r="T6">
-        <v>0.002031376521238888</v>
+        <v>0.009680205179687311</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.901917666666667</v>
+        <v>8.119172000000001</v>
       </c>
       <c r="H7">
-        <v>5.705753</v>
+        <v>24.357516</v>
       </c>
       <c r="I7">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="J7">
-        <v>0.004503284340245794</v>
+        <v>0.01877703836822762</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N7">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q7">
-        <v>9.61644630948989</v>
+        <v>27.03951126119733</v>
       </c>
       <c r="R7">
-        <v>86.54801678540899</v>
+        <v>243.355601350776</v>
       </c>
       <c r="S7">
-        <v>0.0006842031672118627</v>
+        <v>0.001710153008534186</v>
       </c>
       <c r="T7">
-        <v>0.0006842031672118627</v>
+        <v>0.001710153008534186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1242.704681</v>
       </c>
       <c r="I8">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="J8">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N8">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q8">
-        <v>970.7046562235714</v>
+        <v>1166.377483336384</v>
       </c>
       <c r="R8">
-        <v>8736.341906012141</v>
+        <v>10497.39735002746</v>
       </c>
       <c r="S8">
-        <v>0.06906493093608305</v>
+        <v>0.07376923136464722</v>
       </c>
       <c r="T8">
-        <v>0.06906493093608305</v>
+        <v>0.07376923136464722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1242.704681</v>
       </c>
       <c r="I9">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="J9">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.527783</v>
       </c>
       <c r="O9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q9">
         <v>2005.971548739136</v>
@@ -1013,10 +1013,10 @@
         <v>18053.74393865222</v>
       </c>
       <c r="S9">
-        <v>0.1427234180707454</v>
+        <v>0.1268705726953405</v>
       </c>
       <c r="T9">
-        <v>0.1427234180707454</v>
+        <v>0.1268705726953405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>1242.704681</v>
       </c>
       <c r="I10">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="J10">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N10">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q10">
-        <v>1738.528383949636</v>
+        <v>2293.946266033223</v>
       </c>
       <c r="R10">
-        <v>15646.75545554673</v>
+        <v>20645.51639429901</v>
       </c>
       <c r="S10">
-        <v>0.1236950312312575</v>
+        <v>0.1450839503117101</v>
       </c>
       <c r="T10">
-        <v>0.1236950312312575</v>
+        <v>0.1450839503117101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>1242.704681</v>
       </c>
       <c r="I11">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="J11">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N11">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O11">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P11">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q11">
-        <v>757.2260802847949</v>
+        <v>492.3577995943275</v>
       </c>
       <c r="R11">
-        <v>6815.034722563153</v>
+        <v>4431.220196348947</v>
       </c>
       <c r="S11">
-        <v>0.0538760853804178</v>
+        <v>0.03113988134318913</v>
       </c>
       <c r="T11">
-        <v>0.05387608538041779</v>
+        <v>0.03113988134318913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>1242.704681</v>
       </c>
       <c r="I12">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="J12">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N12">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q12">
-        <v>6218.346618023556</v>
+        <v>7808.783265921402</v>
       </c>
       <c r="R12">
-        <v>55965.11956221201</v>
+        <v>70279.04939329262</v>
       </c>
       <c r="S12">
-        <v>0.4424308433640682</v>
+        <v>0.4938777948390906</v>
       </c>
       <c r="T12">
-        <v>0.4424308433640682</v>
+        <v>0.4938777948390906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1242.704681</v>
       </c>
       <c r="I13">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="J13">
-        <v>0.9808087608239342</v>
+        <v>0.9579923287544206</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N13">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q13">
-        <v>2094.447979677399</v>
+        <v>1379.538341111718</v>
       </c>
       <c r="R13">
-        <v>18850.03181709659</v>
+        <v>12415.84507000547</v>
       </c>
       <c r="S13">
-        <v>0.1490184518413621</v>
+        <v>0.08725089820044318</v>
       </c>
       <c r="T13">
-        <v>0.1490184518413621</v>
+        <v>0.08725089820044318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.098869666666667</v>
+        <v>2.146857333333333</v>
       </c>
       <c r="H14">
-        <v>3.296609</v>
+        <v>6.440572</v>
       </c>
       <c r="I14">
-        <v>0.002601859506644144</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="J14">
-        <v>0.002601859506644145</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N14">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O14">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P14">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q14">
-        <v>2.575055646747444</v>
+        <v>6.044990636521777</v>
       </c>
       <c r="R14">
-        <v>23.175500820727</v>
+        <v>54.40491572869599</v>
       </c>
       <c r="S14">
-        <v>0.0001832133381239511</v>
+        <v>0.0003823241782644163</v>
       </c>
       <c r="T14">
-        <v>0.0001832133381239511</v>
+        <v>0.0003823241782644163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.098869666666667</v>
+        <v>2.146857333333333</v>
       </c>
       <c r="H15">
-        <v>3.296609</v>
+        <v>6.440572</v>
       </c>
       <c r="I15">
-        <v>0.002601859506644144</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="J15">
-        <v>0.002601859506644145</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.527783</v>
       </c>
       <c r="O15">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P15">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q15">
-        <v>5.321380020871889</v>
+        <v>10.39635915687511</v>
       </c>
       <c r="R15">
-        <v>47.892420187847</v>
+        <v>93.56723241187599</v>
       </c>
       <c r="S15">
-        <v>0.000378612321749822</v>
+        <v>0.0006575327755811153</v>
       </c>
       <c r="T15">
-        <v>0.0003786123217498221</v>
+        <v>0.0006575327755811153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.098869666666667</v>
+        <v>2.146857333333333</v>
       </c>
       <c r="H16">
-        <v>3.296609</v>
+        <v>6.440572</v>
       </c>
       <c r="I16">
-        <v>0.002601859506644144</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="J16">
-        <v>0.002601859506644145</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N16">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O16">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P16">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q16">
-        <v>4.611914966532445</v>
+        <v>11.88884721881733</v>
       </c>
       <c r="R16">
-        <v>41.507234698792</v>
+        <v>106.999624969356</v>
       </c>
       <c r="S16">
-        <v>0.0003281343986602755</v>
+        <v>0.0007519273422830145</v>
       </c>
       <c r="T16">
-        <v>0.0003281343986602755</v>
+        <v>0.0007519273422830145</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.098869666666667</v>
+        <v>2.146857333333333</v>
       </c>
       <c r="H17">
-        <v>3.296609</v>
+        <v>6.440572</v>
       </c>
       <c r="I17">
-        <v>0.002601859506644144</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="J17">
-        <v>0.002601859506644145</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N17">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O17">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P17">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q17">
-        <v>2.008746204522889</v>
+        <v>2.551745323351556</v>
       </c>
       <c r="R17">
-        <v>18.078715840706</v>
+        <v>22.965707910164</v>
       </c>
       <c r="S17">
-        <v>0.0001429208328135796</v>
+        <v>0.000161388824656939</v>
       </c>
       <c r="T17">
-        <v>0.0001429208328135796</v>
+        <v>0.000161388824656939</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.098869666666667</v>
+        <v>2.146857333333333</v>
       </c>
       <c r="H18">
-        <v>3.296609</v>
+        <v>6.440572</v>
       </c>
       <c r="I18">
-        <v>0.002601859506644144</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="J18">
-        <v>0.002601859506644145</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N18">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O18">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P18">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q18">
-        <v>16.49583987210878</v>
+        <v>40.47062156078088</v>
       </c>
       <c r="R18">
-        <v>148.462558848979</v>
+        <v>364.235594047028</v>
       </c>
       <c r="S18">
-        <v>0.001173667020339789</v>
+        <v>0.002559623010595541</v>
       </c>
       <c r="T18">
-        <v>0.001173667020339789</v>
+        <v>0.002559623010595541</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.098869666666667</v>
+        <v>2.146857333333333</v>
       </c>
       <c r="H19">
-        <v>3.296609</v>
+        <v>6.440572</v>
       </c>
       <c r="I19">
-        <v>0.002601859506644144</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="J19">
-        <v>0.002601859506644145</v>
+        <v>0.004964991814326735</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N19">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O19">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P19">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q19">
-        <v>5.556087592975222</v>
+        <v>7.149740520443554</v>
       </c>
       <c r="R19">
-        <v>50.004788336777</v>
+        <v>64.34766468399199</v>
       </c>
       <c r="S19">
-        <v>0.0003953115949567273</v>
+        <v>0.0004521956829457092</v>
       </c>
       <c r="T19">
-        <v>0.0003953115949567274</v>
+        <v>0.0004521956829457092</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4099533333333333</v>
+        <v>1.878479666666667</v>
       </c>
       <c r="H20">
-        <v>1.22986</v>
+        <v>5.635439</v>
       </c>
       <c r="I20">
-        <v>0.0009706710540562643</v>
+        <v>0.004344320427616932</v>
       </c>
       <c r="J20">
-        <v>0.0009706710540562644</v>
+        <v>0.004344320427616933</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N20">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O20">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P20">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q20">
-        <v>0.9606713861755555</v>
+        <v>5.289309084300221</v>
       </c>
       <c r="R20">
-        <v>8.64604247558</v>
+        <v>47.603781758702</v>
       </c>
       <c r="S20">
-        <v>6.835107106275647E-05</v>
+        <v>0.0003345300052284555</v>
       </c>
       <c r="T20">
-        <v>6.835107106275648E-05</v>
+        <v>0.0003345300052284556</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4099533333333333</v>
+        <v>1.878479666666667</v>
       </c>
       <c r="H21">
-        <v>1.22986</v>
+        <v>5.635439</v>
       </c>
       <c r="I21">
-        <v>0.0009706710540562643</v>
+        <v>0.004344320427616932</v>
       </c>
       <c r="J21">
-        <v>0.0009706710540562644</v>
+        <v>0.004344320427616933</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.527783</v>
       </c>
       <c r="O21">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P21">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q21">
-        <v>1.985237688931111</v>
+        <v>9.096714989081889</v>
       </c>
       <c r="R21">
-        <v>17.86713920038</v>
+        <v>81.870434901737</v>
       </c>
       <c r="S21">
-        <v>0.0001412482190114861</v>
+        <v>0.0005753348999573431</v>
       </c>
       <c r="T21">
-        <v>0.0001412482190114861</v>
+        <v>0.0005753348999573432</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4099533333333333</v>
+        <v>1.878479666666667</v>
       </c>
       <c r="H22">
-        <v>1.22986</v>
+        <v>5.635439</v>
       </c>
       <c r="I22">
-        <v>0.0009706710540562643</v>
+        <v>0.004344320427616932</v>
       </c>
       <c r="J22">
-        <v>0.0009706710540562644</v>
+        <v>0.004344320427616933</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N22">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O22">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P22">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q22">
-        <v>1.720558835075556</v>
+        <v>10.40262779174967</v>
       </c>
       <c r="R22">
-        <v>15.48502951568</v>
+        <v>93.62365012574699</v>
       </c>
       <c r="S22">
-        <v>0.0001224165108862854</v>
+        <v>0.0006579292444627666</v>
       </c>
       <c r="T22">
-        <v>0.0001224165108862854</v>
+        <v>0.0006579292444627667</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4099533333333333</v>
+        <v>1.878479666666667</v>
       </c>
       <c r="H23">
-        <v>1.22986</v>
+        <v>5.635439</v>
       </c>
       <c r="I23">
-        <v>0.0009706710540562643</v>
+        <v>0.004344320427616932</v>
       </c>
       <c r="J23">
-        <v>0.0009706710540562644</v>
+        <v>0.004344320427616933</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N23">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O23">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P23">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q23">
-        <v>0.749399339471111</v>
+        <v>2.232752791721444</v>
       </c>
       <c r="R23">
-        <v>6.744594055239999</v>
+        <v>20.094775125493</v>
       </c>
       <c r="S23">
-        <v>5.331921845875837E-05</v>
+        <v>0.0001412136804985451</v>
       </c>
       <c r="T23">
-        <v>5.331921845875837E-05</v>
+        <v>0.0001412136804985451</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4099533333333333</v>
+        <v>1.878479666666667</v>
       </c>
       <c r="H24">
-        <v>1.22986</v>
+        <v>5.635439</v>
       </c>
       <c r="I24">
-        <v>0.0009706710540562643</v>
+        <v>0.004344320427616932</v>
       </c>
       <c r="J24">
-        <v>0.0009706710540562644</v>
+        <v>0.004344320427616933</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N24">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O24">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P24">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q24">
-        <v>6.154073359962222</v>
+        <v>35.41140741814011</v>
       </c>
       <c r="R24">
-        <v>55.38666023966</v>
+        <v>318.702666763261</v>
       </c>
       <c r="S24">
-        <v>0.0004378578477566167</v>
+        <v>0.002239645692837146</v>
       </c>
       <c r="T24">
-        <v>0.0004378578477566167</v>
+        <v>0.002239645692837146</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4099533333333333</v>
+        <v>1.878479666666667</v>
       </c>
       <c r="H25">
-        <v>1.22986</v>
+        <v>5.635439</v>
       </c>
       <c r="I25">
-        <v>0.0009706710540562643</v>
+        <v>0.004344320427616932</v>
       </c>
       <c r="J25">
-        <v>0.0009706710540562644</v>
+        <v>0.004344320427616933</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N25">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O25">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P25">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q25">
-        <v>2.072799621397778</v>
+        <v>6.255954683650444</v>
       </c>
       <c r="R25">
-        <v>18.65519659258</v>
+        <v>56.30359215285399</v>
       </c>
       <c r="S25">
-        <v>0.0001474781868803612</v>
+        <v>0.0003956669046326762</v>
       </c>
       <c r="T25">
-        <v>0.0001474781868803612</v>
+        <v>0.0003956669046326763</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.553026666666666</v>
+        <v>6.019564666666667</v>
       </c>
       <c r="H26">
-        <v>10.65908</v>
+        <v>18.058694</v>
       </c>
       <c r="I26">
-        <v>0.008412713982786695</v>
+        <v>0.01392132063540805</v>
       </c>
       <c r="J26">
-        <v>0.008412713982786696</v>
+        <v>0.01392132063540806</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N26">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O26">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P26">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q26">
-        <v>8.32604780947111</v>
+        <v>16.94952500147689</v>
       </c>
       <c r="R26">
-        <v>74.93443028524</v>
+        <v>152.545725013292</v>
       </c>
       <c r="S26">
-        <v>0.000592392251592544</v>
+        <v>0.001071997230071886</v>
       </c>
       <c r="T26">
-        <v>0.0005923922515925441</v>
+        <v>0.001071997230071886</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.553026666666666</v>
+        <v>6.019564666666667</v>
       </c>
       <c r="H27">
-        <v>10.65908</v>
+        <v>18.058694</v>
       </c>
       <c r="I27">
-        <v>0.008412713982786695</v>
+        <v>0.01392132063540805</v>
       </c>
       <c r="J27">
-        <v>0.008412713982786696</v>
+        <v>0.01392132063540806</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.527783</v>
       </c>
       <c r="O27">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P27">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q27">
-        <v>17.20586680218222</v>
+        <v>29.15030974393355</v>
       </c>
       <c r="R27">
-        <v>154.85280121964</v>
+        <v>262.352787695402</v>
       </c>
       <c r="S27">
-        <v>0.001224184920479527</v>
+        <v>0.00184365351232624</v>
       </c>
       <c r="T27">
-        <v>0.001224184920479527</v>
+        <v>0.00184365351232624</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.553026666666666</v>
+        <v>6.019564666666667</v>
       </c>
       <c r="H28">
-        <v>10.65908</v>
+        <v>18.058694</v>
       </c>
       <c r="I28">
-        <v>0.008412713982786695</v>
+        <v>0.01392132063540805</v>
       </c>
       <c r="J28">
-        <v>0.008412713982786696</v>
+        <v>0.01392132063540806</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N28">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O28">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P28">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q28">
-        <v>14.91192027367111</v>
+        <v>33.33509103498466</v>
       </c>
       <c r="R28">
-        <v>134.20728246304</v>
+        <v>300.015819314862</v>
       </c>
       <c r="S28">
-        <v>0.001060972291852558</v>
+        <v>0.0021083260593193</v>
       </c>
       <c r="T28">
-        <v>0.001060972291852558</v>
+        <v>0.0021083260593193</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.553026666666666</v>
+        <v>6.019564666666667</v>
       </c>
       <c r="H29">
-        <v>10.65908</v>
+        <v>18.058694</v>
       </c>
       <c r="I29">
-        <v>0.008412713982786695</v>
+        <v>0.01392132063540805</v>
       </c>
       <c r="J29">
-        <v>0.008412713982786696</v>
+        <v>0.01392132063540806</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N29">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O29">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P29">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q29">
-        <v>6.494973014302222</v>
+        <v>7.154828478019779</v>
       </c>
       <c r="R29">
-        <v>58.45475712871999</v>
+        <v>64.393456302178</v>
       </c>
       <c r="S29">
-        <v>0.0004621126104510937</v>
+        <v>0.0004525174781835085</v>
       </c>
       <c r="T29">
-        <v>0.0004621126104510937</v>
+        <v>0.0004525174781835086</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.553026666666666</v>
+        <v>6.019564666666667</v>
       </c>
       <c r="H30">
-        <v>10.65908</v>
+        <v>18.058694</v>
       </c>
       <c r="I30">
-        <v>0.008412713982786695</v>
+        <v>0.01392132063540805</v>
       </c>
       <c r="J30">
-        <v>0.008412713982786696</v>
+        <v>0.01392132063540806</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N30">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O30">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P30">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q30">
-        <v>53.33677025816444</v>
+        <v>113.4754134812784</v>
       </c>
       <c r="R30">
-        <v>480.03093232348</v>
+        <v>1021.278721331506</v>
       </c>
       <c r="S30">
-        <v>0.003794872447161138</v>
+        <v>0.00717691669368864</v>
       </c>
       <c r="T30">
-        <v>0.003794872447161139</v>
+        <v>0.007176916693688641</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,14 +2326,14 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.553026666666666</v>
+        <v>6.019564666666667</v>
       </c>
       <c r="H31">
-        <v>10.65908</v>
+        <v>18.058694</v>
       </c>
       <c r="I31">
-        <v>0.008412713982786695</v>
+        <v>0.01392132063540805</v>
       </c>
       <c r="J31">
-        <v>0.008412713982786696</v>
+        <v>0.01392132063540806</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N31">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O31">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P31">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q31">
-        <v>17.96475776791555</v>
+        <v>20.04712877025378</v>
       </c>
       <c r="R31">
-        <v>161.68281991124</v>
+        <v>180.424158932284</v>
       </c>
       <c r="S31">
-        <v>0.001278179461249833</v>
+        <v>0.001267909661818482</v>
       </c>
       <c r="T31">
-        <v>0.001278179461249834</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>1.141463</v>
-      </c>
-      <c r="H32">
-        <v>3.424389</v>
-      </c>
-      <c r="I32">
-        <v>0.002702710292333011</v>
-      </c>
-      <c r="J32">
-        <v>0.002702710292333012</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.343367666666667</v>
-      </c>
-      <c r="N32">
-        <v>7.030103</v>
-      </c>
-      <c r="O32">
-        <v>0.07041630712807322</v>
-      </c>
-      <c r="P32">
-        <v>0.07041630712807322</v>
-      </c>
-      <c r="Q32">
-        <v>2.674867486896333</v>
-      </c>
-      <c r="R32">
-        <v>24.073807382067</v>
-      </c>
-      <c r="S32">
-        <v>0.0001903148780231259</v>
-      </c>
-      <c r="T32">
-        <v>0.0001903148780231259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>1.141463</v>
-      </c>
-      <c r="H33">
-        <v>3.424389</v>
-      </c>
-      <c r="I33">
-        <v>0.002702710292333011</v>
-      </c>
-      <c r="J33">
-        <v>0.002702710292333012</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>4.842594333333333</v>
-      </c>
-      <c r="N33">
-        <v>14.527783</v>
-      </c>
-      <c r="O33">
-        <v>0.1455160514174545</v>
-      </c>
-      <c r="P33">
-        <v>0.1455160514174545</v>
-      </c>
-      <c r="Q33">
-        <v>5.527642255509667</v>
-      </c>
-      <c r="R33">
-        <v>49.748780299587</v>
-      </c>
-      <c r="S33">
-        <v>0.0003932877298656138</v>
-      </c>
-      <c r="T33">
-        <v>0.0003932877298656139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>1.141463</v>
-      </c>
-      <c r="H34">
-        <v>3.424389</v>
-      </c>
-      <c r="I34">
-        <v>0.002702710292333011</v>
-      </c>
-      <c r="J34">
-        <v>0.002702710292333012</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>4.196962666666667</v>
-      </c>
-      <c r="N34">
-        <v>12.590888</v>
-      </c>
-      <c r="O34">
-        <v>0.1261153409022843</v>
-      </c>
-      <c r="P34">
-        <v>0.1261153409022843</v>
-      </c>
-      <c r="Q34">
-        <v>4.790677596381334</v>
-      </c>
-      <c r="R34">
-        <v>43.116098367432</v>
-      </c>
-      <c r="S34">
-        <v>0.0003408532298776901</v>
-      </c>
-      <c r="T34">
-        <v>0.0003408532298776902</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>1.141463</v>
-      </c>
-      <c r="H35">
-        <v>3.424389</v>
-      </c>
-      <c r="I35">
-        <v>0.002702710292333011</v>
-      </c>
-      <c r="J35">
-        <v>0.002702710292333012</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.828011333333333</v>
-      </c>
-      <c r="N35">
-        <v>5.484033999999999</v>
-      </c>
-      <c r="O35">
-        <v>0.05493026523861683</v>
-      </c>
-      <c r="P35">
-        <v>0.05493026523861682</v>
-      </c>
-      <c r="Q35">
-        <v>2.086607300580667</v>
-      </c>
-      <c r="R35">
-        <v>18.779465705226</v>
-      </c>
-      <c r="S35">
-        <v>0.0001484605932209919</v>
-      </c>
-      <c r="T35">
-        <v>0.0001484605932209919</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>1.141463</v>
-      </c>
-      <c r="H36">
-        <v>3.424389</v>
-      </c>
-      <c r="I36">
-        <v>0.002702710292333011</v>
-      </c>
-      <c r="J36">
-        <v>0.002702710292333012</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>15.01164366666667</v>
-      </c>
-      <c r="N36">
-        <v>45.034931</v>
-      </c>
-      <c r="O36">
-        <v>0.451087776777607</v>
-      </c>
-      <c r="P36">
-        <v>0.451087776777607</v>
-      </c>
-      <c r="Q36">
-        <v>17.13523581468434</v>
-      </c>
-      <c r="R36">
-        <v>154.217122332159</v>
-      </c>
-      <c r="S36">
-        <v>0.001219159577042454</v>
-      </c>
-      <c r="T36">
-        <v>0.001219159577042455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>1.141463</v>
-      </c>
-      <c r="H37">
-        <v>3.424389</v>
-      </c>
-      <c r="I37">
-        <v>0.002702710292333011</v>
-      </c>
-      <c r="J37">
-        <v>0.002702710292333012</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>5.056184333333333</v>
-      </c>
-      <c r="N37">
-        <v>15.168553</v>
-      </c>
-      <c r="O37">
-        <v>0.151934258535964</v>
-      </c>
-      <c r="P37">
-        <v>0.151934258535964</v>
-      </c>
-      <c r="Q37">
-        <v>5.771447337679668</v>
-      </c>
-      <c r="R37">
-        <v>51.943026039117</v>
-      </c>
-      <c r="S37">
-        <v>0.0004106342843031347</v>
-      </c>
-      <c r="T37">
-        <v>0.0004106342843031347</v>
+        <v>0.001267909661818482</v>
       </c>
     </row>
   </sheetData>
